--- a/crm/src/main/webapp/excel/保全申请书.xlsx
+++ b/crm/src/main/webapp/excel/保全申请书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldx\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F79DB-F6AA-419D-B546-E54C8BF23ECA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6079B561-A804-4D0F-A249-FB4AD6AD4723}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -141,40 +141,19 @@
     <t>60000.00</t>
   </si>
   <si>
-    <t>陈新峰</t>
+    <t>南通森安钢结构有限公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>320682197910303275</t>
+    <t>住院保额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
+    <t>误工保额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>火工</t>
-  </si>
-  <si>
-    <t>退保</t>
-  </si>
-  <si>
-    <t>丁强明</t>
-  </si>
-  <si>
-    <t>320623197310065090</t>
-  </si>
-  <si>
-    <t>刘永国</t>
-  </si>
-  <si>
-    <t>653125197910170219</t>
-  </si>
-  <si>
-    <t>唐志伟</t>
-  </si>
-  <si>
-    <t>320683199003126856</t>
-  </si>
-  <si>
-    <t>南通森安钢结构有限公司</t>
+    <t>法律赔偿保额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +203,13 @@
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -287,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -297,12 +283,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 强调文字颜色 2 2 2 2 2 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -646,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB837"/>
+  <dimension ref="A1:AB838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A13:E13"/>
+      <selection activeCell="E18" sqref="A15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -662,13 +651,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -694,13 +683,13 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -729,8 +718,8 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>36</v>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
@@ -878,15 +867,19 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -912,15 +905,19 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
+      <c r="A8" s="10" t="s">
+        <v>27</v>
       </c>
-      <c r="B8" s="9">
-        <v>-27.96</v>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -947,18 +944,14 @@
     </row>
     <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
+      <c r="B9" s="13">
+        <v>-27.96</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -983,12 +976,43 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -1004,90 +1028,50 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -6829,11 +6813,18 @@
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
     </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" s="5"/>
+      <c r="B838" s="5"/>
+      <c r="C838" s="5"/>
+      <c r="D838" s="5"/>
+      <c r="E838" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
